--- a/LIL-E2E-Selenium/src/testdata/TestData.xlsx
+++ b/LIL-E2E-Selenium/src/testdata/TestData.xlsx
@@ -110,13 +110,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -139,7 +143,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -161,7 +165,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
